--- a/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>-23,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-30,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>142,11%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>-36,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-25,73%</t>
+          <t>-52,92%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,5</t>
+          <t>-4,2; 0,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 4,93</t>
+          <t>-4,75; 0,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 4,85</t>
+          <t>-0,69; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,74</t>
+          <t>-3,52; 0,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,77</t>
+          <t>-4,06; -0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 64,55</t>
+          <t>-49,19; 13,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,33; 57,15</t>
+          <t>-57,85; 4,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 462,73</t>
+          <t>-40,46; 348,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 82,18</t>
+          <t>-68,09; 21,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-56,01; 39,02</t>
+          <t>-73,43; -15,9</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-39,71%</t>
+          <t>-62,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,31%</t>
+          <t>-66,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>-24,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>-50,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>156,7%</t>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -0,0</t>
+          <t>-7,67; -2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 1,17</t>
+          <t>-11,32; -2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,33</t>
+          <t>-2,55; 1,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,37</t>
+          <t>-3,46; 0,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 11,86</t>
+          <t>-2,22; 3,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,99; 2,85</t>
+          <t>-79,54; -32,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,39; 19,75</t>
+          <t>-82,64; -36,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,46; 165,3</t>
+          <t>-75,4; 88,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,89; 101,82</t>
+          <t>-82,86; 34,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,48; 875,46</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -901,17 +901,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>-42,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>117,45%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>714,86%</t>
+          <t>258,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 6,54</t>
+          <t>-6,62; 1,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 23,2</t>
+          <t>-5,02; 7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 13,44</t>
+          <t>-0,56; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 15,01</t>
+          <t>0,85; 6,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,9; 201,47</t>
+          <t>-87,89; 126,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,89; 633,24</t>
+          <t>-60,18; 288,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-41,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>-42,68%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,64</t>
+          <t>-4,73; -1,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,84</t>
+          <t>-5,61; -1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,62</t>
+          <t>-0,63; 1,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,51</t>
+          <t>-2,23; 0,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,35</t>
+          <t>-3,22; -0,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 17,11</t>
+          <t>-57,41; -22,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 31,02</t>
+          <t>-60,41; -17,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 209,61</t>
+          <t>-30,0; 126,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 80,73</t>
+          <t>-60,03; 19,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 54,03</t>
+          <t>-68,54; -3,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,231 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-23,3%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-30,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>64,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-36,84%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-52,92%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.276873405933963</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4214079973029417</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.577072901564119</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1681097479435983</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.721819516134715</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1239788254511777</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.0364323002877176</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.551732343417207</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.03410776942205763</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2572705249150649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 0,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 0,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 2,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 0,4</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; -0,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-49,19; 13,42</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-57,85; 4,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,46; 348,75</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-68,09; 21,18</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-73,43; -15,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.51246988993099</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.449477217766333</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4129226004630032</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.3937743889631</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.946604745744352</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.236135799899737</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3853774878164456</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03519096940347823</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5218589740374402</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5837434783264701</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.312681704876216</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.587114424563776</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.494072817389503</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.991441853553006</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.648634576383773</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6122174168021922</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5350608347003902</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.929064369690142</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8912063956609058</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3704119552011781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-62,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-66,06%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-24,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-50,11%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; -2,29</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; -2,73</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 1,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 0,38</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 3,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-79,54; -32,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-82,64; -36,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-75,4; 88,1</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-82,86; 34,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-87,48; 875,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.618467766508023</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.691950732550319</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5014589785175806</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.9801740175227259</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.282512684492783</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.396843734443324</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3570432533138887</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1491864367384569</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2341976109456257</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.566213883246947</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-42,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,28%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>258,77%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.976614356201628</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.12733249844057</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.512406284651908</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.478784862286437</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.8716143726333656</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6489828416253486</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6699615895992614</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5886424366562075</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.7457408135521125</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,62; 1,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 7,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 4,33</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 6,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-87,89; 126,82</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-60,18; 288,16</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.06939592644081306</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.491210490753334</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.796345655479159</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.088382168779257</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.80691424452638</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.005348226611159114</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2083890174436224</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.800503198313711</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8544619055050818</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +875,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-41,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-42,58%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-32,09%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-42,68%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.268404980917158</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>10.50064735594334</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.971221373407363</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.006788685937135</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.1691280014492647</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.400622526986374</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>7.389887310487789</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; -1,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; -1,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,27</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 0,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; -0,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-57,41; -22,17</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-60,41; -17,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-30,0; 126,84</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-60,03; 19,8</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-68,54; -3,93</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.586335300516257</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.004276092412448438</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.0179505133388522</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9738320559548816</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.8054922828874331</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.236881973894318</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.179094003324532</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>25.07791848374127</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.78843673874331</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.68868485660978</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.957570912514505</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.741311266131047</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.22627293754239</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7757157292963279</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.014458046407807</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1718423741431822</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.4740927444825599</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1164497086868898</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.06628888306766775</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.9102020755031424</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04258082883761028</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.08147116382769072</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.958665520203891</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.900338952555135</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2047695143583816</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.911653425226298</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.053925538781811</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3309803939842533</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.351046372703413</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.01338423248675969</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3947040119430376</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4433808874218113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.603377218599048</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.90671834006252</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.761007365321376</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.224207414012708</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.36602273260476</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1680565800494871</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2860855335229598</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.348901234120961</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6988855048549527</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5919210175553928</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1091,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
